--- a/Manual Test Cases/London.xlsx
+++ b/Manual Test Cases/London.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{FC3A30DE-0B33-4CA2-92DA-C46B6D65D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52CC3EB-6777-44F3-BC15-EE1689371C45}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{FC3A30DE-0B33-4CA2-92DA-C46B6D65D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15702F1B-E22E-40CE-ABBF-77BC0BE94673}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,8 @@
   <si>
     <t>Valid Url
 Valid API Response
-Test Data</t>
+Test Data
+Django</t>
   </si>
   <si>
     <t>City id: 2643743
@@ -331,16 +332,16 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -676,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Manual Test Cases/London.xlsx
+++ b/Manual Test Cases/London.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{FC3A30DE-0B33-4CA2-92DA-C46B6D65D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15702F1B-E22E-40CE-ABBF-77BC0BE94673}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{FC3A30DE-0B33-4CA2-92DA-C46B6D65D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B06333B-3CD0-4963-9BBC-F8BCC5CE2057}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,8 @@
     <t>City id: 2643743
 Language: English
 Unit: Metric
-Url: 127.0.0.1</t>
+Url: http://127.0.0.1:8000/
+Browser:Chrome</t>
   </si>
   <si>
     <t>User Should able to see buttons with city names and weather details</t>
@@ -156,104 +157,104 @@
 4. Check if the temperature reading is accurate</t>
   </si>
   <si>
+    <t>User Should able to see buttons with city names
+and weather details</t>
+  </si>
+  <si>
+    <t>11.24 °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As Expected</t>
+  </si>
+  <si>
+    <t>TS-GB-003</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>Check if the humidity reading is accurate for each London</t>
+  </si>
+  <si>
+    <t>1. Open Url
+2. Click on London button
+3. Check if the city name is displayed
+4. Check if the humidity reading is accurate</t>
+  </si>
+  <si>
+    <t>TS-GB-004</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>Check if the description is displayed in the right language</t>
+  </si>
+  <si>
+    <t>1. Open Url
+2. Click on London button
+3. Check if the city name is displayed
+4. Check if the description is displayed in English</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Few clouds (Description in English)</t>
+  </si>
+  <si>
+    <t>TS-GB-005</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>Check if the minimum temperature reading is accurate in degree celcius(°C) for London</t>
+  </si>
+  <si>
+    <t>1. Open Url
+2. Click on London button
+3. Check if the city name is displayed
+4. Check if the Temp. min is accurate in degree celcius(°C)</t>
+  </si>
+  <si>
+    <t>9.25 °C</t>
+  </si>
+  <si>
+    <t>TS-GB-006</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Check if the maximum temperature reading is accurate in degree celcius(°C) for London</t>
+  </si>
+  <si>
+    <t>1. Open Url
+2. Click on London button
+3. Check if the city name is displayed
+4. Check if the Temp. max is accurate in degree celcius(°C)</t>
+  </si>
+  <si>
+    <t>13.31 °C</t>
+  </si>
+  <si>
+    <t>TS-GB-007</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>Check if the country name is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Url
+2. Click on London button
+3. Check if the country name is displayed
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">City id: 2643743
 Language: English
 Unit: Metric
 Url: 127.0.0.1
-</t>
-  </si>
-  <si>
-    <t>User Should able to see buttons with city names
-and weather details</t>
-  </si>
-  <si>
-    <t>11.24 °C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As Expected</t>
-  </si>
-  <si>
-    <t>TS-GB-003</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>Check if the humidity reading is accurate for each London</t>
-  </si>
-  <si>
-    <t>1. Open Url
-2. Click on London button
-3. Check if the city name is displayed
-4. Check if the humidity reading is accurate</t>
-  </si>
-  <si>
-    <t>TS-GB-004</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>Check if the description is displayed in the right language</t>
-  </si>
-  <si>
-    <t>1. Open Url
-2. Click on London button
-3. Check if the city name is displayed
-4. Check if the description is displayed in English</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Few clouds (Description in English)</t>
-  </si>
-  <si>
-    <t>TS-GB-005</t>
-  </si>
-  <si>
-    <t>TC-005</t>
-  </si>
-  <si>
-    <t>Check if the minimum temperature reading is accurate in degree celcius(°C) for London</t>
-  </si>
-  <si>
-    <t>1. Open Url
-2. Click on London button
-3. Check if the city name is displayed
-4. Check if the Temp. min is accurate in degree celcius(°C)</t>
-  </si>
-  <si>
-    <t>9.25 °C</t>
-  </si>
-  <si>
-    <t>TS-GB-006</t>
-  </si>
-  <si>
-    <t>TC-006</t>
-  </si>
-  <si>
-    <t>Check if the maximum temperature reading is accurate in degree celcius(°C) for London</t>
-  </si>
-  <si>
-    <t>1. Open Url
-2. Click on London button
-3. Check if the city name is displayed
-4. Check if the Temp. max is accurate in degree celcius(°C)</t>
-  </si>
-  <si>
-    <t>13.31 °C</t>
-  </si>
-  <si>
-    <t>TS-GB-007</t>
-  </si>
-  <si>
-    <t>TC-007</t>
-  </si>
-  <si>
-    <t>Check if the country name is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Url
-2. Click on London button
-3. Check if the country name is displayed
 </t>
   </si>
   <si>
@@ -677,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="81.75" customHeight="1">
+    <row r="9" spans="1:14" ht="112.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -836,7 +837,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="90">
+    <row r="10" spans="1:14" ht="115.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -856,16 +857,16 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
@@ -878,21 +879,21 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="78.75" customHeight="1">
+    <row r="11" spans="1:14" ht="109.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>30</v>
@@ -901,13 +902,13 @@
         <v>31</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="8">
         <v>94</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>34</v>
@@ -920,21 +921,21 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="76.5" customHeight="1">
+    <row r="12" spans="1:14" ht="114.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>30</v>
@@ -943,13 +944,13 @@
         <v>31</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>34</v>
@@ -962,36 +963,36 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="75" customHeight="1">
+    <row r="13" spans="1:14" ht="113.25" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>34</v>
@@ -1004,36 +1005,36 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="90.75" customHeight="1">
+    <row r="14" spans="1:14" ht="105" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="I14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>34</v>
@@ -1046,30 +1047,30 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="80.25" customHeight="1">
+    <row r="15" spans="1:14" ht="96.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>66</v>
